--- a/documentation/quality/Test Documents/03-TC-Contact-Persons.xlsx
+++ b/documentation/quality/Test Documents/03-TC-Contact-Persons.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="218">
   <si>
     <t>Tester:</t>
   </si>
@@ -799,15 +799,33 @@
       <t>Contact Persons</t>
     </r>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,7 +874,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +902,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1096,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1126,20 +1156,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1150,6 +1166,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1200,6 +1254,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1278,6 +1337,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1312,6 +1372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1487,14 +1548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -1504,52 +1565,92 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="I2" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="41" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="I3" s="56">
+        <f>AVERAGE(Sheet2!B17/65)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="56">
+        <f>AVERAGE(Sheet2!C17/65)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="56">
+        <f>AVERAGE(Sheet2!D17/65)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="56">
+        <f>AVERAGE(Sheet2!E17/65)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="56">
+        <f>SUM(I3:L4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="43">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1559,10 +1660,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="45" t="s">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1580,11 +1681,11 @@
       <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="120.75" thickBot="1">
+    <row r="7" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>142</v>
       </c>
@@ -1600,17 +1701,17 @@
         <v>7</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" ht="75">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>143</v>
       </c>
@@ -1627,7 +1728,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:15" ht="75">
+    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>144</v>
       </c>
@@ -1644,7 +1745,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:15" ht="75">
+    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>145</v>
       </c>
@@ -1661,7 +1762,7 @@
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:15" ht="60">
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>146</v>
       </c>
@@ -1678,7 +1779,7 @@
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:15" ht="195">
+    <row r="12" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>147</v>
       </c>
@@ -1695,7 +1796,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:15" ht="60">
+    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>148</v>
       </c>
@@ -1712,8 +1813,8 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1">
-      <c r="A14" s="43">
+    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>3.1</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1723,9 +1824,9 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:15" ht="45">
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>149</v>
       </c>
@@ -1742,7 +1843,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:15" ht="45">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>150</v>
       </c>
@@ -1759,7 +1860,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>151</v>
       </c>
@@ -1776,7 +1877,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" ht="60">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>152</v>
       </c>
@@ -1793,7 +1894,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>153</v>
       </c>
@@ -1810,7 +1911,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>154</v>
       </c>
@@ -1827,8 +1928,8 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="47">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>3.2</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1838,9 +1939,9 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="1:7" ht="45">
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>192</v>
       </c>
@@ -1857,7 +1958,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" ht="60">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>155</v>
       </c>
@@ -1874,7 +1975,7 @@
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" ht="60">
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>156</v>
       </c>
@@ -1891,7 +1992,7 @@
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>157</v>
       </c>
@@ -1908,7 +2009,7 @@
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>158</v>
       </c>
@@ -1925,7 +2026,7 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>159</v>
       </c>
@@ -1942,7 +2043,7 @@
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" ht="60">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>160</v>
       </c>
@@ -1959,7 +2060,7 @@
       </c>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7" ht="60">
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>161</v>
       </c>
@@ -1976,7 +2077,7 @@
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="75">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>162</v>
       </c>
@@ -1993,7 +2094,7 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>163</v>
       </c>
@@ -2010,8 +2111,8 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="30">
-      <c r="A32" s="47">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
         <v>3.3</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2021,9 +2122,9 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="48"/>
-    </row>
-    <row r="33" spans="1:7" ht="60">
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>164</v>
       </c>
@@ -2042,7 +2143,7 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="60">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>165</v>
       </c>
@@ -2061,7 +2162,7 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" ht="45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>166</v>
       </c>
@@ -2080,7 +2181,7 @@
       </c>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>167</v>
       </c>
@@ -2099,7 +2200,7 @@
       </c>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="1:7" ht="60">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>168</v>
       </c>
@@ -2118,7 +2219,7 @@
       </c>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7" ht="75">
+    <row r="38" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>169</v>
       </c>
@@ -2137,7 +2238,7 @@
       </c>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>170</v>
       </c>
@@ -2156,7 +2257,7 @@
       </c>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>3.4</v>
       </c>
@@ -2169,7 +2270,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>195</v>
       </c>
@@ -2186,7 +2287,7 @@
       </c>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:7" ht="195">
+    <row r="42" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>171</v>
       </c>
@@ -2203,7 +2304,7 @@
       </c>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7" ht="75">
+    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>172</v>
       </c>
@@ -2220,11 +2321,11 @@
       </c>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:7" ht="105">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -2237,7 +2338,7 @@
       </c>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="1:7" ht="75">
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>174</v>
       </c>
@@ -2254,7 +2355,7 @@
       </c>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:7" ht="75">
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>175</v>
       </c>
@@ -2271,7 +2372,7 @@
       </c>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:7" ht="75">
+    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>176</v>
       </c>
@@ -2288,7 +2389,7 @@
       </c>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="1:7" ht="60">
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>177</v>
       </c>
@@ -2305,7 +2406,7 @@
       </c>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>3.5</v>
       </c>
@@ -2318,7 +2419,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="1:7" ht="75">
+    <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>178</v>
       </c>
@@ -2337,7 +2438,7 @@
       </c>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="1:7" ht="60">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>179</v>
       </c>
@@ -2354,7 +2455,7 @@
       </c>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="1:7" ht="75">
+    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>180</v>
       </c>
@@ -2371,7 +2472,7 @@
       </c>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="1:7" ht="150">
+    <row r="53" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>181</v>
       </c>
@@ -2388,7 +2489,7 @@
       </c>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="1:7" ht="60">
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>182</v>
       </c>
@@ -2405,7 +2506,7 @@
       </c>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="1:7" ht="45">
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>79</v>
       </c>
@@ -2418,7 +2519,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="1:7" ht="60">
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>183</v>
       </c>
@@ -2437,7 +2538,7 @@
       </c>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="1:7" ht="60">
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>184</v>
       </c>
@@ -2454,7 +2555,7 @@
       </c>
       <c r="G57" s="22"/>
     </row>
-    <row r="58" spans="1:7" ht="60">
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>185</v>
       </c>
@@ -2471,7 +2572,7 @@
       </c>
       <c r="G58" s="22"/>
     </row>
-    <row r="59" spans="1:7" ht="195">
+    <row r="59" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>186</v>
       </c>
@@ -2488,7 +2589,7 @@
       </c>
       <c r="G59" s="22"/>
     </row>
-    <row r="60" spans="1:7" ht="90">
+    <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>187</v>
       </c>
@@ -2507,7 +2608,7 @@
       </c>
       <c r="G60" s="22"/>
     </row>
-    <row r="61" spans="1:7" ht="75">
+    <row r="61" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>188</v>
       </c>
@@ -2524,7 +2625,7 @@
       </c>
       <c r="G61" s="22"/>
     </row>
-    <row r="62" spans="1:7" ht="45">
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>80</v>
       </c>
@@ -2537,7 +2638,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="1:7" ht="75">
+    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>189</v>
       </c>
@@ -2554,7 +2655,7 @@
       </c>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="1:7" ht="150">
+    <row r="64" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>190</v>
       </c>
@@ -2571,7 +2672,7 @@
       </c>
       <c r="G64" s="22"/>
     </row>
-    <row r="65" spans="1:7" ht="60">
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>191</v>
       </c>
@@ -2588,7 +2689,7 @@
       </c>
       <c r="G65" s="22"/>
     </row>
-    <row r="66" spans="1:7" ht="45">
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>81</v>
       </c>
@@ -2601,7 +2702,7 @@
       <c r="F66" s="18"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:7" ht="75">
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>196</v>
       </c>
@@ -2618,7 +2719,7 @@
       </c>
       <c r="G67" s="22"/>
     </row>
-    <row r="68" spans="1:7" ht="75">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>197</v>
       </c>
@@ -2635,7 +2736,7 @@
       </c>
       <c r="G68" s="22"/>
     </row>
-    <row r="69" spans="1:7" ht="60">
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>198</v>
       </c>
@@ -2652,7 +2753,7 @@
       </c>
       <c r="G69" s="22"/>
     </row>
-    <row r="70" spans="1:7" ht="60">
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>199</v>
       </c>
@@ -2669,7 +2770,7 @@
       </c>
       <c r="G70" s="22"/>
     </row>
-    <row r="71" spans="1:7" ht="60">
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>200</v>
       </c>
@@ -2686,7 +2787,7 @@
       </c>
       <c r="G71" s="22"/>
     </row>
-    <row r="72" spans="1:7" ht="60">
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>201</v>
       </c>
@@ -2703,7 +2804,7 @@
       </c>
       <c r="G72" s="22"/>
     </row>
-    <row r="73" spans="1:7" ht="75">
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>202</v>
       </c>
@@ -2720,7 +2821,7 @@
       </c>
       <c r="G73" s="22"/>
     </row>
-    <row r="74" spans="1:7" ht="60">
+    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>203</v>
       </c>
@@ -2737,7 +2838,7 @@
       </c>
       <c r="G74" s="22"/>
     </row>
-    <row r="75" spans="1:7" ht="75">
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>204</v>
       </c>
@@ -2754,7 +2855,7 @@
       </c>
       <c r="G75" s="22"/>
     </row>
-    <row r="76" spans="1:7" ht="75">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>205</v>
       </c>
@@ -2771,7 +2872,7 @@
       </c>
       <c r="G76" s="22"/>
     </row>
-    <row r="77" spans="1:7" ht="45">
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>82</v>
       </c>
@@ -2784,7 +2885,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="19"/>
     </row>
-    <row r="78" spans="1:7" ht="150">
+    <row r="78" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>206</v>
       </c>
@@ -2801,7 +2902,7 @@
       </c>
       <c r="G78" s="22"/>
     </row>
-    <row r="79" spans="1:7" ht="90">
+    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>207</v>
       </c>
@@ -2818,8 +2919,8 @@
       </c>
       <c r="G79" s="22"/>
     </row>
-    <row r="80" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A80" s="50" t="s">
+    <row r="80" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="38" t="s">
         <v>208</v>
       </c>
       <c r="B80" s="24" t="s">
@@ -2835,33 +2936,38 @@
       </c>
       <c r="G80" s="27"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="F41:F48 F50:F54 F67:F76 F63:F65 F56:F61 F33:F39 F7:F13 F22:F31 F15:F20">
     <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="BLOCKED">
@@ -2902,33 +3008,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>3</v>
+      </c>
+      <c r="B7" s="58">
+        <f>COUNTIF(Sheet1!F7:F13, "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="58">
+        <f>COUNTIF(Sheet1!F7:F13, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="58">
+        <f>COUNTIF(Sheet1!F7:F13, "NOT RUN")</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="58">
+        <f>COUNTIF(Sheet1!F7:F13, "BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
+        <v>3.1</v>
+      </c>
+      <c r="B8" s="58">
+        <f>COUNTIF(Sheet1!F15:F20, "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="58">
+        <f>COUNTIF(Sheet1!F15:F20, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="58">
+        <f>COUNTIF(Sheet1!F15:F20, "NOT RUN")</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="58">
+        <f>COUNTIF(Sheet1!F15:F20, "BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="58">
+        <f>COUNTIF(Sheet1!F22:F31, "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="58">
+        <f>COUNTIF(Sheet1!F22:F31, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="58">
+        <f>COUNTIF(Sheet1!F22:F31, "NOT RUN")</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="58">
+        <f>COUNTIF(Sheet1!F22:F31, "BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="58">
+        <f>COUNTIF(Sheet1!F33:F39, "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="58">
+        <f>COUNTIF(Sheet1!F33:F39, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="58">
+        <f>COUNTIF(Sheet1!F33:F39, "NOT RUN")</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="58">
+        <f>COUNTIF(Sheet1!F33:F39, "BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="57">
+        <v>3.4</v>
+      </c>
+      <c r="B11" s="58">
+        <f>COUNTIF(Sheet1!F41:F48,"PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="58">
+        <f>COUNTIF(Sheet1!F41:F48,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="58">
+        <f>COUNTIF(Sheet1!F41:F48,"NOT RUN")</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="58">
+        <f>COUNTIF(Sheet1!F41:F48,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>3.5</v>
+      </c>
+      <c r="B12" s="58">
+        <f>COUNTIF(Sheet1!F50:F54, "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="58">
+        <f>COUNTIF(Sheet1!F50:F54, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="58">
+        <f>COUNTIF(Sheet1!F50:F54, "NOT RUN")</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="58">
+        <f>COUNTIF(Sheet1!F50:F54, "BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="58">
+        <f>COUNTIF(Sheet1!F56:F61,"PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="58">
+        <f>COUNTIF(Sheet1!F56:F61,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="58">
+        <f>COUNTIF(Sheet1!F56:F61,"NOT RUN")</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="58">
+        <f>COUNTIF(Sheet1!F56:F61,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="58">
+        <f>COUNTIF(Sheet1!F63:F65, "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="58">
+        <f>COUNTIF(Sheet1!F63:F65, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="58">
+        <f>COUNTIF(Sheet1!F63:F65, "NOT RUN")</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="58">
+        <f>COUNTIF(Sheet1!F63:F65, "BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="58">
+        <f>COUNTIF(Sheet1!F67:F76, "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="58">
+        <f>COUNTIF(Sheet1!F67:F76, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="58">
+        <f>COUNTIF(Sheet1!F67:F76, "NOT RUN")</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="58">
+        <f>COUNTIF(Sheet1!F67:F76, "BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="58">
+        <f>COUNTIF(Sheet1!F78:F80, "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="58">
+        <f>COUNTIF(Sheet1!F78:F80, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="58">
+        <f>COUNTIF(Sheet1!F78:F80, "NOT RUN")</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="58">
+        <f>COUNTIF(Sheet1!F78:F80, "BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B7:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C7:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D7:D16)</f>
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E7:E16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2937,31 +3294,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
